--- a/Supplementary file/Supplementary file5_Metabolite abbreviation.xlsx
+++ b/Supplementary file/Supplementary file5_Metabolite abbreviation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/cymee95_o365_skku_edu/Documents/Research/Project/2020 Biomass/Supplementary file/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/cymee95_o365_skku_edu/Documents/Research/Project/2020 Biomass/Supplementary file/FInal_20220715/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{CA85402A-3DE9-42D5-9155-2703B1ED0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44683E72-C30B-48C9-B76F-4345BFECE67C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{CA85402A-3DE9-42D5-9155-2703B1ED0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C9FE112-7ED6-4D29-96C3-56CC35C32C8A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{A868CBBE-D646-47A0-B265-265D7D2E27DA}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{A868CBBE-D646-47A0-B265-265D7D2E27DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reference" sheetId="4" r:id="rId1"/>
-    <sheet name="iML1515 " sheetId="3" r:id="rId2"/>
-    <sheet name="Yeast8.0.0" sheetId="1" r:id="rId3"/>
-    <sheet name="iCHO2291" sheetId="2" r:id="rId4"/>
+    <sheet name="iML1515 " sheetId="3" r:id="rId1"/>
+    <sheet name="Yeast8.0.0" sheetId="1" r:id="rId2"/>
+    <sheet name="iCHO2291" sheetId="2" r:id="rId3"/>
+    <sheet name="Reference" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34213,52 +34213,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3CDCF7-06EC-4C13-A1EA-588FE8F352C3}">
-  <dimension ref="B2:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>11173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11176</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>11174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11177</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>11175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091EC6D1-0476-4827-A32E-DBF9738FEC3D}">
   <dimension ref="A1:B1657"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -47527,13 +47485,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF96BCEC-4C4F-4826-893A-8AEC402F1584}">
   <dimension ref="A1:B2225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2225"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -65346,13 +65302,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E81A0-1A72-4CA7-8A0E-B1ED8BFC9F08}">
   <dimension ref="A1:B3990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -97284,4 +97238,44 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3CDCF7-06EC-4C13-A1EA-588FE8F352C3}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>11173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>11174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>11175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>